--- a/FeasibilityResults.xlsx
+++ b/FeasibilityResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\MEGAsync\Zachary\Self\Programs\Python\NutritionResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073FFEF4-40FF-42D4-8A99-5D9703775300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FB9AE-087D-4AF7-81C3-89039E9DAD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2655" yWindow="5895" windowWidth="62850" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FeasibilityResults.xlsx
+++ b/FeasibilityResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\MEGAsync\Zachary\Self\Programs\Python\NutritionResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FB9AE-087D-4AF7-81C3-89039E9DAD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92760690-9D7C-441B-9BE5-D75BBF3422BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2655" yWindow="5895" windowWidth="62850" windowHeight="27600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="9210" windowWidth="12150" windowHeight="20595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>Sugars</t>
   </si>
@@ -34,33 +34,30 @@
     <t>Arby's</t>
   </si>
   <si>
+    <t>Feasible</t>
+  </si>
+  <si>
+    <t>Baskin-Robbins</t>
+  </si>
+  <si>
+    <t>Blimpie</t>
+  </si>
+  <si>
+    <t>Boston Market</t>
+  </si>
+  <si>
+    <t>Buffalo Wild Wings</t>
+  </si>
+  <si>
+    <t>Burger King</t>
+  </si>
+  <si>
+    <t>Carl's Jr</t>
+  </si>
+  <si>
     <t>Relaxed</t>
   </si>
   <si>
-    <t>Baskin-Robbins</t>
-  </si>
-  <si>
-    <t>Infeasible</t>
-  </si>
-  <si>
-    <t>Blimpie</t>
-  </si>
-  <si>
-    <t>Boston Market</t>
-  </si>
-  <si>
-    <t>Weakened</t>
-  </si>
-  <si>
-    <t>Buffalo Wild Wings</t>
-  </si>
-  <si>
-    <t>Burger King</t>
-  </si>
-  <si>
-    <t>Carl's Jr</t>
-  </si>
-  <si>
     <t>Chipotle</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>Godfather's Pizza</t>
-  </si>
-  <si>
-    <t>Feasible</t>
   </si>
   <si>
     <t>Hardee's</t>
@@ -226,7 +220,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -240,14 +241,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,15 +546,14 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -604,10 +597,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -618,13 +611,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -632,7 +625,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -646,7 +639,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -660,21 +653,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -688,7 +681,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -702,10 +695,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -716,7 +709,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -730,13 +723,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -744,10 +737,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -758,13 +751,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -772,10 +765,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -786,41 +779,41 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -828,21 +821,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -856,27 +849,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -884,24 +877,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -912,13 +905,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -926,41 +919,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -968,10 +961,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -982,10 +975,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -996,7 +989,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1010,10 +1003,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1024,10 +1017,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1038,13 +1031,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1052,10 +1045,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1066,10 +1059,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1080,13 +1073,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1094,10 +1087,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1108,7 +1101,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1122,20 +1115,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D40">
-    <cfRule type="beginsWith" dxfId="3" priority="4" operator="beginsWith" text="Feasible">
-      <formula>LEFT(B2,LEN("Feasible"))="Feasible"</formula>
+    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Weakened">
+      <formula>LEFT(B2,LEN("Weakened"))="Weakened"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" operator="beginsWith" text="Infeasible">
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="Relaxed">
+      <formula>LEFT(B2,LEN("Relaxed"))="Relaxed"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Infeasible">
       <formula>LEFT(B2,LEN("Infeasible"))="Infeasible"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Relaxed">
-      <formula>LEFT(B2,LEN("Relaxed"))="Relaxed"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="Weakened">
-      <formula>LEFT(B2,LEN("Weakened"))="Weakened"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Feasible">
+      <formula>LEFT(B2,LEN("Feasible"))="Feasible"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>